--- a/xl/solver/fixed-cost-transport.1.xlsx
+++ b/xl/solver/fixed-cost-transport.1.xlsx
@@ -212,7 +212,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -226,6 +225,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -536,7 +538,7 @@
   <dimension ref="B1:M63"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="M2" sqref="M2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -551,16 +553,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:13">
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7"/>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
     </row>
     <row r="2" spans="2:13">
       <c r="B2" s="2">
@@ -590,22 +592,22 @@
       <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="3">
+      <c r="M2" s="8">
         <f>SUMPRODUCT(quantity, varcost) + SUMPRODUCT(shipped, fixcost)</f>
         <v>471.54999999999995</v>
       </c>
     </row>
     <row r="4" spans="2:13">
-      <c r="B4" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="8"/>
+      <c r="B4" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="2">
@@ -634,46 +636,46 @@
       </c>
     </row>
     <row r="7" spans="2:13">
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="8"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="K7" s="4" t="s">
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+      <c r="K7" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="3" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="2:13">
-      <c r="B8" s="5">
-        <v>0</v>
-      </c>
-      <c r="C8" s="5">
-        <v>0</v>
-      </c>
-      <c r="D8" s="5">
+      <c r="B8" s="4">
+        <v>0</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0</v>
+      </c>
+      <c r="D8" s="4">
         <v>20</v>
       </c>
-      <c r="E8" s="5">
-        <v>0</v>
-      </c>
-      <c r="F8" s="5">
-        <v>0</v>
-      </c>
-      <c r="G8" s="5">
-        <v>0</v>
-      </c>
-      <c r="H8" s="5">
-        <v>0</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="E8" s="4">
+        <v>0</v>
+      </c>
+      <c r="F8" s="4">
+        <v>0</v>
+      </c>
+      <c r="G8" s="4">
+        <v>0</v>
+      </c>
+      <c r="H8" s="4">
+        <v>0</v>
+      </c>
+      <c r="I8" s="4">
         <v>0</v>
       </c>
       <c r="K8" s="2">
@@ -684,28 +686,28 @@
       </c>
     </row>
     <row r="9" spans="2:13">
-      <c r="B9" s="5">
+      <c r="B9" s="4">
         <v>15</v>
       </c>
-      <c r="C9" s="5">
-        <v>0</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>0</v>
-      </c>
-      <c r="F9" s="5">
-        <v>0</v>
-      </c>
-      <c r="G9" s="5">
-        <v>0</v>
-      </c>
-      <c r="H9" s="5">
-        <v>0</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="C9" s="4">
+        <v>0</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="4">
+        <v>0</v>
+      </c>
+      <c r="H9" s="4">
+        <v>0</v>
+      </c>
+      <c r="I9" s="4">
         <v>0</v>
       </c>
       <c r="K9" s="2">
@@ -716,28 +718,28 @@
       </c>
     </row>
     <row r="10" spans="2:13">
-      <c r="B10" s="5">
-        <v>0</v>
-      </c>
-      <c r="C10" s="5">
+      <c r="B10" s="4">
+        <v>0</v>
+      </c>
+      <c r="C10" s="4">
         <v>20</v>
       </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>0</v>
-      </c>
-      <c r="F10" s="5">
-        <v>0</v>
-      </c>
-      <c r="G10" s="5">
-        <v>0</v>
-      </c>
-      <c r="H10" s="5">
-        <v>0</v>
-      </c>
-      <c r="I10" s="5">
+      <c r="D10" s="4">
+        <v>0</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0</v>
+      </c>
+      <c r="F10" s="4">
+        <v>0</v>
+      </c>
+      <c r="G10" s="4">
+        <v>0</v>
+      </c>
+      <c r="H10" s="4">
+        <v>0</v>
+      </c>
+      <c r="I10" s="4">
         <v>0</v>
       </c>
       <c r="K10" s="2">
@@ -748,28 +750,28 @@
       </c>
     </row>
     <row r="11" spans="2:13">
-      <c r="B11" s="5">
-        <v>0</v>
-      </c>
-      <c r="C11" s="5">
-        <v>0</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>0</v>
-      </c>
-      <c r="F11" s="5">
+      <c r="B11" s="4">
+        <v>0</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0</v>
+      </c>
+      <c r="F11" s="4">
         <v>15</v>
       </c>
-      <c r="G11" s="5">
-        <v>0</v>
-      </c>
-      <c r="H11" s="5">
-        <v>0</v>
-      </c>
-      <c r="I11" s="5">
+      <c r="G11" s="4">
+        <v>0</v>
+      </c>
+      <c r="H11" s="4">
+        <v>0</v>
+      </c>
+      <c r="I11" s="4">
         <v>0</v>
       </c>
       <c r="K11" s="2">
@@ -780,28 +782,28 @@
       </c>
     </row>
     <row r="12" spans="2:13">
-      <c r="B12" s="5">
-        <v>0</v>
-      </c>
-      <c r="C12" s="5">
-        <v>0</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
         <v>5</v>
       </c>
-      <c r="E12" s="5">
-        <v>0</v>
-      </c>
-      <c r="F12" s="5">
-        <v>0</v>
-      </c>
-      <c r="G12" s="5">
-        <v>0</v>
-      </c>
-      <c r="H12" s="5">
-        <v>0</v>
-      </c>
-      <c r="I12" s="5">
+      <c r="E12" s="4">
+        <v>0</v>
+      </c>
+      <c r="F12" s="4">
+        <v>0</v>
+      </c>
+      <c r="G12" s="4">
+        <v>0</v>
+      </c>
+      <c r="H12" s="4">
+        <v>0</v>
+      </c>
+      <c r="I12" s="4">
         <v>0</v>
       </c>
       <c r="K12" s="2">
@@ -812,28 +814,28 @@
       </c>
     </row>
     <row r="13" spans="2:13">
-      <c r="B13" s="5">
-        <v>0</v>
-      </c>
-      <c r="C13" s="5">
-        <v>0</v>
-      </c>
-      <c r="D13" s="5">
+      <c r="B13" s="4">
+        <v>0</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0</v>
+      </c>
+      <c r="D13" s="4">
         <v>20</v>
       </c>
-      <c r="E13" s="5">
-        <v>0</v>
-      </c>
-      <c r="F13" s="5">
-        <v>0</v>
-      </c>
-      <c r="G13" s="5">
-        <v>0</v>
-      </c>
-      <c r="H13" s="5">
-        <v>0</v>
-      </c>
-      <c r="I13" s="5">
+      <c r="E13" s="4">
+        <v>0</v>
+      </c>
+      <c r="F13" s="4">
+        <v>0</v>
+      </c>
+      <c r="G13" s="4">
+        <v>0</v>
+      </c>
+      <c r="H13" s="4">
+        <v>0</v>
+      </c>
+      <c r="I13" s="4">
         <v>0</v>
       </c>
       <c r="K13" s="2">
@@ -844,28 +846,28 @@
       </c>
     </row>
     <row r="14" spans="2:13">
-      <c r="B14" s="5">
-        <v>0</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0</v>
-      </c>
-      <c r="E14" s="5">
+      <c r="B14" s="4">
+        <v>0</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0</v>
+      </c>
+      <c r="E14" s="4">
         <v>30</v>
       </c>
-      <c r="F14" s="5">
-        <v>0</v>
-      </c>
-      <c r="G14" s="5">
-        <v>0</v>
-      </c>
-      <c r="H14" s="5">
-        <v>0</v>
-      </c>
-      <c r="I14" s="5">
+      <c r="F14" s="4">
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <v>0</v>
+      </c>
+      <c r="H14" s="4">
+        <v>0</v>
+      </c>
+      <c r="I14" s="4">
         <v>0</v>
       </c>
       <c r="K14" s="2">
@@ -876,28 +878,28 @@
       </c>
     </row>
     <row r="15" spans="2:13">
-      <c r="B15" s="5">
-        <v>0</v>
-      </c>
-      <c r="C15" s="5">
-        <v>0</v>
-      </c>
-      <c r="D15" s="5">
-        <v>0</v>
-      </c>
-      <c r="E15" s="5">
-        <v>0</v>
-      </c>
-      <c r="F15" s="5">
-        <v>0</v>
-      </c>
-      <c r="G15" s="5">
-        <v>0</v>
-      </c>
-      <c r="H15" s="5">
+      <c r="B15" s="4">
+        <v>0</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="4">
+        <v>0</v>
+      </c>
+      <c r="H15" s="4">
         <v>10</v>
       </c>
-      <c r="I15" s="5">
+      <c r="I15" s="4">
         <v>0</v>
       </c>
       <c r="K15" s="2">
@@ -908,28 +910,28 @@
       </c>
     </row>
     <row r="16" spans="2:13">
-      <c r="B16" s="5">
-        <v>0</v>
-      </c>
-      <c r="C16" s="5">
-        <v>0</v>
-      </c>
-      <c r="D16" s="5">
-        <v>0</v>
-      </c>
-      <c r="E16" s="5">
-        <v>0</v>
-      </c>
-      <c r="F16" s="5">
-        <v>0</v>
-      </c>
-      <c r="G16" s="5">
+      <c r="B16" s="4">
+        <v>0</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+      <c r="F16" s="4">
+        <v>0</v>
+      </c>
+      <c r="G16" s="4">
         <v>35</v>
       </c>
-      <c r="H16" s="5">
-        <v>0</v>
-      </c>
-      <c r="I16" s="5">
+      <c r="H16" s="4">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4">
         <v>0</v>
       </c>
       <c r="K16" s="2">
@@ -940,28 +942,28 @@
       </c>
     </row>
     <row r="17" spans="2:13">
-      <c r="B17" s="5">
-        <v>0</v>
-      </c>
-      <c r="C17" s="5">
-        <v>0</v>
-      </c>
-      <c r="D17" s="5">
-        <v>0</v>
-      </c>
-      <c r="E17" s="5">
-        <v>0</v>
-      </c>
-      <c r="F17" s="5">
-        <v>0</v>
-      </c>
-      <c r="G17" s="5">
-        <v>0</v>
-      </c>
-      <c r="H17" s="5">
-        <v>0</v>
-      </c>
-      <c r="I17" s="5">
+      <c r="B17" s="4">
+        <v>0</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+      <c r="F17" s="4">
+        <v>0</v>
+      </c>
+      <c r="G17" s="4">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>0</v>
+      </c>
+      <c r="I17" s="4">
         <v>25</v>
       </c>
       <c r="K17" s="2">
@@ -972,28 +974,28 @@
       </c>
     </row>
     <row r="18" spans="2:13">
-      <c r="B18" s="5">
-        <v>0</v>
-      </c>
-      <c r="C18" s="5">
-        <v>0</v>
-      </c>
-      <c r="D18" s="5">
-        <v>0</v>
-      </c>
-      <c r="E18" s="5">
-        <v>0</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="B18" s="4">
+        <v>0</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+      <c r="F18" s="4">
         <v>10</v>
       </c>
-      <c r="G18" s="5">
-        <v>0</v>
-      </c>
-      <c r="H18" s="5">
-        <v>0</v>
-      </c>
-      <c r="I18" s="5">
+      <c r="G18" s="4">
+        <v>0</v>
+      </c>
+      <c r="H18" s="4">
+        <v>0</v>
+      </c>
+      <c r="I18" s="4">
         <v>0</v>
       </c>
       <c r="K18" s="2">
@@ -1004,28 +1006,28 @@
       </c>
     </row>
     <row r="19" spans="2:13">
-      <c r="B19" s="5">
-        <v>0</v>
-      </c>
-      <c r="C19" s="5">
-        <v>0</v>
-      </c>
-      <c r="D19" s="5">
-        <v>0</v>
-      </c>
-      <c r="E19" s="5">
+      <c r="B19" s="4">
+        <v>0</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0</v>
+      </c>
+      <c r="E19" s="4">
         <v>5</v>
       </c>
-      <c r="F19" s="5">
-        <v>0</v>
-      </c>
-      <c r="G19" s="5">
-        <v>0</v>
-      </c>
-      <c r="H19" s="5">
-        <v>0</v>
-      </c>
-      <c r="I19" s="5">
+      <c r="F19" s="4">
+        <v>0</v>
+      </c>
+      <c r="G19" s="4">
+        <v>0</v>
+      </c>
+      <c r="H19" s="4">
+        <v>0</v>
+      </c>
+      <c r="I19" s="4">
         <v>0</v>
       </c>
       <c r="K19" s="2">
@@ -1036,340 +1038,340 @@
       </c>
     </row>
     <row r="21" spans="2:13">
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="C21" s="8"/>
-      <c r="D21" s="8"/>
-      <c r="E21" s="8"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="8"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="8"/>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="E21" s="7"/>
+      <c r="F21" s="7"/>
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
     </row>
     <row r="22" spans="2:13">
-      <c r="B22" s="7">
-        <v>0</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0</v>
-      </c>
-      <c r="D22" s="7">
+      <c r="B22" s="6">
+        <v>0</v>
+      </c>
+      <c r="C22" s="6">
+        <v>0</v>
+      </c>
+      <c r="D22" s="6">
         <v>1</v>
       </c>
-      <c r="E22" s="7">
-        <v>0</v>
-      </c>
-      <c r="F22" s="7">
-        <v>0</v>
-      </c>
-      <c r="G22" s="7">
-        <v>0</v>
-      </c>
-      <c r="H22" s="7">
-        <v>0</v>
-      </c>
-      <c r="I22" s="7">
+      <c r="E22" s="6">
+        <v>0</v>
+      </c>
+      <c r="F22" s="6">
+        <v>0</v>
+      </c>
+      <c r="G22" s="6">
+        <v>0</v>
+      </c>
+      <c r="H22" s="6">
+        <v>0</v>
+      </c>
+      <c r="I22" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="2:13">
-      <c r="B23" s="7">
+      <c r="B23" s="6">
         <v>1</v>
       </c>
-      <c r="C23" s="7">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7">
-        <v>0</v>
-      </c>
-      <c r="F23" s="7">
-        <v>0</v>
-      </c>
-      <c r="G23" s="7">
-        <v>0</v>
-      </c>
-      <c r="H23" s="7">
-        <v>0</v>
-      </c>
-      <c r="I23" s="7">
+      <c r="C23" s="6">
+        <v>0</v>
+      </c>
+      <c r="D23" s="6">
+        <v>0</v>
+      </c>
+      <c r="E23" s="6">
+        <v>0</v>
+      </c>
+      <c r="F23" s="6">
+        <v>0</v>
+      </c>
+      <c r="G23" s="6">
+        <v>0</v>
+      </c>
+      <c r="H23" s="6">
+        <v>0</v>
+      </c>
+      <c r="I23" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="2:13">
-      <c r="B24" s="7">
-        <v>0</v>
-      </c>
-      <c r="C24" s="7">
+      <c r="B24" s="6">
+        <v>0</v>
+      </c>
+      <c r="C24" s="6">
         <v>1</v>
       </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7">
-        <v>0</v>
-      </c>
-      <c r="F24" s="7">
-        <v>0</v>
-      </c>
-      <c r="G24" s="7">
-        <v>0</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
+      <c r="D24" s="6">
+        <v>0</v>
+      </c>
+      <c r="E24" s="6">
+        <v>0</v>
+      </c>
+      <c r="F24" s="6">
+        <v>0</v>
+      </c>
+      <c r="G24" s="6">
+        <v>0</v>
+      </c>
+      <c r="H24" s="6">
+        <v>0</v>
+      </c>
+      <c r="I24" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:13">
-      <c r="B25" s="7">
-        <v>0</v>
-      </c>
-      <c r="C25" s="7">
-        <v>0</v>
-      </c>
-      <c r="D25" s="7">
-        <v>0</v>
-      </c>
-      <c r="E25" s="7">
-        <v>0</v>
-      </c>
-      <c r="F25" s="7">
+      <c r="B25" s="6">
+        <v>0</v>
+      </c>
+      <c r="C25" s="6">
+        <v>0</v>
+      </c>
+      <c r="D25" s="6">
+        <v>0</v>
+      </c>
+      <c r="E25" s="6">
+        <v>0</v>
+      </c>
+      <c r="F25" s="6">
         <v>1</v>
       </c>
-      <c r="G25" s="7">
-        <v>0</v>
-      </c>
-      <c r="H25" s="7">
-        <v>0</v>
-      </c>
-      <c r="I25" s="7">
+      <c r="G25" s="6">
+        <v>0</v>
+      </c>
+      <c r="H25" s="6">
+        <v>0</v>
+      </c>
+      <c r="I25" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="2:13">
-      <c r="B26" s="7">
-        <v>0</v>
-      </c>
-      <c r="C26" s="7">
-        <v>0</v>
-      </c>
-      <c r="D26" s="7">
+      <c r="B26" s="6">
+        <v>0</v>
+      </c>
+      <c r="C26" s="6">
+        <v>0</v>
+      </c>
+      <c r="D26" s="6">
         <v>1</v>
       </c>
-      <c r="E26" s="7">
-        <v>0</v>
-      </c>
-      <c r="F26" s="7">
-        <v>0</v>
-      </c>
-      <c r="G26" s="7">
-        <v>0</v>
-      </c>
-      <c r="H26" s="7">
-        <v>0</v>
-      </c>
-      <c r="I26" s="7">
+      <c r="E26" s="6">
+        <v>0</v>
+      </c>
+      <c r="F26" s="6">
+        <v>0</v>
+      </c>
+      <c r="G26" s="6">
+        <v>0</v>
+      </c>
+      <c r="H26" s="6">
+        <v>0</v>
+      </c>
+      <c r="I26" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="2:13">
-      <c r="B27" s="7">
-        <v>0</v>
-      </c>
-      <c r="C27" s="7">
-        <v>0</v>
-      </c>
-      <c r="D27" s="7">
+      <c r="B27" s="6">
+        <v>0</v>
+      </c>
+      <c r="C27" s="6">
+        <v>0</v>
+      </c>
+      <c r="D27" s="6">
         <v>1</v>
       </c>
-      <c r="E27" s="7">
-        <v>0</v>
-      </c>
-      <c r="F27" s="7">
-        <v>0</v>
-      </c>
-      <c r="G27" s="7">
-        <v>0</v>
-      </c>
-      <c r="H27" s="7">
-        <v>0</v>
-      </c>
-      <c r="I27" s="7">
+      <c r="E27" s="6">
+        <v>0</v>
+      </c>
+      <c r="F27" s="6">
+        <v>0</v>
+      </c>
+      <c r="G27" s="6">
+        <v>0</v>
+      </c>
+      <c r="H27" s="6">
+        <v>0</v>
+      </c>
+      <c r="I27" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="2:13">
-      <c r="B28" s="7">
-        <v>0</v>
-      </c>
-      <c r="C28" s="7">
-        <v>0</v>
-      </c>
-      <c r="D28" s="7">
-        <v>0</v>
-      </c>
-      <c r="E28" s="7">
+      <c r="B28" s="6">
+        <v>0</v>
+      </c>
+      <c r="C28" s="6">
+        <v>0</v>
+      </c>
+      <c r="D28" s="6">
+        <v>0</v>
+      </c>
+      <c r="E28" s="6">
         <v>1</v>
       </c>
-      <c r="F28" s="7">
-        <v>0</v>
-      </c>
-      <c r="G28" s="7">
-        <v>0</v>
-      </c>
-      <c r="H28" s="7">
-        <v>0</v>
-      </c>
-      <c r="I28" s="7">
+      <c r="F28" s="6">
+        <v>0</v>
+      </c>
+      <c r="G28" s="6">
+        <v>0</v>
+      </c>
+      <c r="H28" s="6">
+        <v>0</v>
+      </c>
+      <c r="I28" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="2:13">
-      <c r="B29" s="7">
-        <v>0</v>
-      </c>
-      <c r="C29" s="7">
-        <v>0</v>
-      </c>
-      <c r="D29" s="7">
-        <v>0</v>
-      </c>
-      <c r="E29" s="7">
-        <v>0</v>
-      </c>
-      <c r="F29" s="7">
-        <v>0</v>
-      </c>
-      <c r="G29" s="7">
-        <v>0</v>
-      </c>
-      <c r="H29" s="7">
+      <c r="B29" s="6">
+        <v>0</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0</v>
+      </c>
+      <c r="D29" s="6">
+        <v>0</v>
+      </c>
+      <c r="E29" s="6">
+        <v>0</v>
+      </c>
+      <c r="F29" s="6">
+        <v>0</v>
+      </c>
+      <c r="G29" s="6">
+        <v>0</v>
+      </c>
+      <c r="H29" s="6">
         <v>1</v>
       </c>
-      <c r="I29" s="7">
+      <c r="I29" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="2:13">
-      <c r="B30" s="7">
-        <v>0</v>
-      </c>
-      <c r="C30" s="7">
-        <v>0</v>
-      </c>
-      <c r="D30" s="7">
-        <v>0</v>
-      </c>
-      <c r="E30" s="7">
-        <v>0</v>
-      </c>
-      <c r="F30" s="7">
-        <v>0</v>
-      </c>
-      <c r="G30" s="7">
+      <c r="B30" s="6">
+        <v>0</v>
+      </c>
+      <c r="C30" s="6">
+        <v>0</v>
+      </c>
+      <c r="D30" s="6">
+        <v>0</v>
+      </c>
+      <c r="E30" s="6">
+        <v>0</v>
+      </c>
+      <c r="F30" s="6">
+        <v>0</v>
+      </c>
+      <c r="G30" s="6">
         <v>1</v>
       </c>
-      <c r="H30" s="7">
-        <v>0</v>
-      </c>
-      <c r="I30" s="7">
+      <c r="H30" s="6">
+        <v>0</v>
+      </c>
+      <c r="I30" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="2:13">
-      <c r="B31" s="7">
-        <v>0</v>
-      </c>
-      <c r="C31" s="7">
-        <v>0</v>
-      </c>
-      <c r="D31" s="7">
-        <v>0</v>
-      </c>
-      <c r="E31" s="7">
-        <v>0</v>
-      </c>
-      <c r="F31" s="7">
-        <v>0</v>
-      </c>
-      <c r="G31" s="7">
-        <v>0</v>
-      </c>
-      <c r="H31" s="7">
-        <v>0</v>
-      </c>
-      <c r="I31" s="7">
+      <c r="B31" s="6">
+        <v>0</v>
+      </c>
+      <c r="C31" s="6">
+        <v>0</v>
+      </c>
+      <c r="D31" s="6">
+        <v>0</v>
+      </c>
+      <c r="E31" s="6">
+        <v>0</v>
+      </c>
+      <c r="F31" s="6">
+        <v>0</v>
+      </c>
+      <c r="G31" s="6">
+        <v>0</v>
+      </c>
+      <c r="H31" s="6">
+        <v>0</v>
+      </c>
+      <c r="I31" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="2:13">
-      <c r="B32" s="7">
-        <v>0</v>
-      </c>
-      <c r="C32" s="7">
-        <v>0</v>
-      </c>
-      <c r="D32" s="7">
-        <v>0</v>
-      </c>
-      <c r="E32" s="7">
-        <v>0</v>
-      </c>
-      <c r="F32" s="7">
+      <c r="B32" s="6">
+        <v>0</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0</v>
+      </c>
+      <c r="D32" s="6">
+        <v>0</v>
+      </c>
+      <c r="E32" s="6">
+        <v>0</v>
+      </c>
+      <c r="F32" s="6">
         <v>1</v>
       </c>
-      <c r="G32" s="7">
-        <v>0</v>
-      </c>
-      <c r="H32" s="7">
-        <v>0</v>
-      </c>
-      <c r="I32" s="7">
+      <c r="G32" s="6">
+        <v>0</v>
+      </c>
+      <c r="H32" s="6">
+        <v>0</v>
+      </c>
+      <c r="I32" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:9">
-      <c r="B33" s="7">
-        <v>0</v>
-      </c>
-      <c r="C33" s="7">
-        <v>0</v>
-      </c>
-      <c r="D33" s="7">
-        <v>0</v>
-      </c>
-      <c r="E33" s="7">
+      <c r="B33" s="6">
+        <v>0</v>
+      </c>
+      <c r="C33" s="6">
+        <v>0</v>
+      </c>
+      <c r="D33" s="6">
+        <v>0</v>
+      </c>
+      <c r="E33" s="6">
         <v>1</v>
       </c>
-      <c r="F33" s="7">
-        <v>0</v>
-      </c>
-      <c r="G33" s="7">
-        <v>0</v>
-      </c>
-      <c r="H33" s="7">
-        <v>0</v>
-      </c>
-      <c r="I33" s="7">
+      <c r="F33" s="6">
+        <v>0</v>
+      </c>
+      <c r="G33" s="6">
+        <v>0</v>
+      </c>
+      <c r="H33" s="6">
+        <v>0</v>
+      </c>
+      <c r="I33" s="6">
         <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:9">
-      <c r="B36" s="8" t="s">
+      <c r="B36" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C36" s="8"/>
-      <c r="D36" s="8"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="8"/>
-      <c r="G36" s="8"/>
-      <c r="H36" s="8"/>
-      <c r="I36" s="8"/>
+      <c r="C36" s="7"/>
+      <c r="D36" s="7"/>
+      <c r="E36" s="7"/>
+      <c r="F36" s="7"/>
+      <c r="G36" s="7"/>
+      <c r="H36" s="7"/>
+      <c r="I36" s="7"/>
     </row>
     <row r="37" spans="2:9">
       <c r="B37" s="2">
@@ -1684,44 +1686,44 @@
       </c>
     </row>
     <row r="49" spans="2:13">
-      <c r="B49" s="6"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="6"/>
-      <c r="E49" s="6"/>
-      <c r="F49" s="6"/>
-      <c r="G49" s="6"/>
-      <c r="H49" s="6"/>
-      <c r="I49" s="6"/>
-      <c r="J49" s="6"/>
-      <c r="K49" s="6"/>
-      <c r="L49" s="6"/>
-      <c r="M49" s="6"/>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
+      <c r="F49" s="5"/>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="5"/>
+      <c r="L49" s="5"/>
+      <c r="M49" s="5"/>
     </row>
     <row r="50" spans="2:13">
-      <c r="B50" s="6"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="6"/>
-      <c r="E50" s="6"/>
-      <c r="F50" s="6"/>
-      <c r="G50" s="6"/>
-      <c r="H50" s="6"/>
-      <c r="I50" s="6"/>
-      <c r="J50" s="6"/>
-      <c r="K50" s="6"/>
-      <c r="L50" s="6"/>
-      <c r="M50" s="6"/>
+      <c r="B50" s="5"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="5"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="5"/>
+      <c r="L50" s="5"/>
+      <c r="M50" s="5"/>
     </row>
     <row r="51" spans="2:13">
-      <c r="B51" s="8" t="s">
+      <c r="B51" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="8"/>
-      <c r="G51" s="8"/>
-      <c r="H51" s="8"/>
-      <c r="I51" s="8"/>
+      <c r="C51" s="7"/>
+      <c r="D51" s="7"/>
+      <c r="E51" s="7"/>
+      <c r="F51" s="7"/>
+      <c r="G51" s="7"/>
+      <c r="H51" s="7"/>
+      <c r="I51" s="7"/>
     </row>
     <row r="52" spans="2:13">
       <c r="B52" s="2">
@@ -2132,7 +2134,7 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73BB3EEC-E478-4763-8319-C51A5A145808}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{04611005-8CDF-4E67-9EBE-DCF97C881DF4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
     <ds:schemaRef ds:uri="http://opensolver.org"/>
